--- a/Beer-Game-Cadeia-1.xlsx
+++ b/Beer-Game-Cadeia-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Logistica1819/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A4EFEBA-E3A9-4723-AD9A-2C75E667E9FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D8AF80-5095-7C4C-8269-6F080747D8C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retalho" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,42 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,61 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,6 +553,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,31 +986,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:17" ht="24">
+      <c r="B2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
@@ -1018,7 +1018,7 @@
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -1036,7 +1036,7 @@
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="49.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,25 +1074,25 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82">
-        <v>200</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="81">
-        <v>200</v>
-      </c>
-      <c r="J5" s="81">
-        <v>200</v>
-      </c>
-      <c r="K5" s="81"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52">
+        <v>200</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51">
+        <v>200</v>
+      </c>
+      <c r="J5" s="51">
+        <v>200</v>
+      </c>
+      <c r="K5" s="51"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -1102,7 +1102,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="P6" s="58"/>
       <c r="Q6" s="59"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1176,13 +1176,13 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="61" t="s">
+      <c r="O7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="P8" s="64"/>
       <c r="Q8" s="65"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -2059,33 +2059,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:17" ht="24">
+      <c r="B2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="4" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="4" spans="2:17" ht="48">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -2125,10 +2125,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="79">
-        <v>200</v>
-      </c>
-      <c r="H5" s="80"/>
+      <c r="G5" s="49">
+        <v>200</v>
+      </c>
+      <c r="H5" s="50"/>
       <c r="I5" s="1">
         <v>200</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2156,10 +2156,10 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="49">
         <v>350</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="50">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -2171,13 +2171,13 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -2193,10 +2193,10 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="49">
         <v>250</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="50">
         <v>100</v>
       </c>
       <c r="I7" s="1">
@@ -2208,13 +2208,13 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -2230,10 +2230,10 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="49">
         <v>50</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="50">
         <v>300</v>
       </c>
       <c r="I8" s="1">
@@ -2245,13 +2245,13 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="73"/>
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -2267,10 +2267,10 @@
       <c r="F9" s="1">
         <v>150</v>
       </c>
-      <c r="G9" s="79">
-        <v>0</v>
-      </c>
-      <c r="H9" s="80">
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="50">
         <v>500</v>
       </c>
       <c r="I9" s="1">
@@ -2283,7 +2283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -2299,10 +2299,10 @@
       <c r="F10" s="1">
         <v>150</v>
       </c>
-      <c r="G10" s="79">
-        <v>0</v>
-      </c>
-      <c r="H10" s="80">
+      <c r="G10" s="49">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50">
         <v>400</v>
       </c>
       <c r="I10" s="1">
@@ -2315,7 +2315,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -2331,10 +2331,10 @@
       <c r="F11" s="1">
         <v>450</v>
       </c>
-      <c r="G11" s="79">
-        <v>0</v>
-      </c>
-      <c r="H11" s="80">
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
         <v>100</v>
       </c>
       <c r="I11" s="1">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -2363,10 +2363,10 @@
       <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="79">
-        <v>0</v>
-      </c>
-      <c r="H12" s="80">
+      <c r="G12" s="49">
+        <v>0</v>
+      </c>
+      <c r="H12" s="50">
         <v>500</v>
       </c>
       <c r="I12" s="1">
@@ -2379,7 +2379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -2395,10 +2395,10 @@
       <c r="F13" s="1">
         <v>650</v>
       </c>
-      <c r="G13" s="79">
-        <v>0</v>
-      </c>
-      <c r="H13" s="80">
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50">
         <v>750</v>
       </c>
       <c r="I13" s="1">
@@ -2411,7 +2411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -2427,10 +2427,10 @@
       <c r="F14" s="1">
         <v>1750</v>
       </c>
-      <c r="G14" s="79">
-        <v>0</v>
-      </c>
-      <c r="H14" s="80">
+      <c r="G14" s="49">
+        <v>0</v>
+      </c>
+      <c r="H14" s="50">
         <v>2000</v>
       </c>
       <c r="I14" s="1">
@@ -2443,7 +2443,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -2459,10 +2459,10 @@
       <c r="F15" s="1">
         <v>850</v>
       </c>
-      <c r="G15" s="79">
-        <v>0</v>
-      </c>
-      <c r="H15" s="80">
+      <c r="G15" s="49">
+        <v>0</v>
+      </c>
+      <c r="H15" s="50">
         <v>2000</v>
       </c>
       <c r="I15" s="1">
@@ -2475,7 +2475,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -2491,10 +2491,10 @@
       <c r="F16" s="1">
         <v>1350</v>
       </c>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="80">
+      <c r="G16" s="49">
+        <v>0</v>
+      </c>
+      <c r="H16" s="50">
         <v>1000</v>
       </c>
       <c r="I16" s="1">
@@ -2507,7 +2507,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -2523,10 +2523,10 @@
       <c r="F17" s="1">
         <v>2350</v>
       </c>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="80">
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="50">
         <v>1000</v>
       </c>
       <c r="I17" s="1">
@@ -2539,7 +2539,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -2555,10 +2555,10 @@
       <c r="F18" s="1">
         <v>2650</v>
       </c>
-      <c r="G18" s="79">
-        <v>0</v>
-      </c>
-      <c r="H18" s="80">
+      <c r="G18" s="49">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50">
         <v>1000</v>
       </c>
       <c r="I18" s="1">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -2587,10 +2587,10 @@
       <c r="F19" s="1">
         <v>2650</v>
       </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="80">
+      <c r="G19" s="49">
+        <v>0</v>
+      </c>
+      <c r="H19" s="50">
         <v>1000</v>
       </c>
       <c r="I19" s="1">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -2619,10 +2619,10 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="79">
+      <c r="G20" s="49">
         <v>2200</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="50">
         <v>0</v>
       </c>
       <c r="I20" s="1">
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -2651,10 +2651,10 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="79">
+      <c r="G21" s="49">
         <v>3200</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="50">
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="49">
         <v>3200</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="50">
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -2715,10 +2715,10 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="79">
+      <c r="G23" s="49">
         <v>3200</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="50">
         <v>0</v>
       </c>
       <c r="I23" s="1">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -2747,10 +2747,10 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="79">
+      <c r="G24" s="49">
         <v>3200</v>
       </c>
-      <c r="H24" s="80">
+      <c r="H24" s="50">
         <v>0</v>
       </c>
       <c r="I24" s="1">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -2779,10 +2779,10 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="49">
         <v>3200</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="50">
         <v>0</v>
       </c>
       <c r="I25" s="1">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -2811,10 +2811,10 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="49">
         <v>3200</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="50">
         <v>0</v>
       </c>
       <c r="I26" s="1">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -2843,10 +2843,10 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="79">
+      <c r="G27" s="49">
         <v>3200</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="50">
         <v>0</v>
       </c>
       <c r="I27" s="1">
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -2875,10 +2875,10 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="49">
         <v>3200</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="50">
         <v>0</v>
       </c>
       <c r="I28" s="1">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -2907,10 +2907,10 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="49">
         <v>3200</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="50">
         <v>0</v>
       </c>
       <c r="I29" s="1">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -2935,13 +2935,13 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275">
         <v>5</v>
       </c>
@@ -2961,32 +2961,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:17" ht="24">
+      <c r="B2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="4" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="4" spans="2:17" ht="48">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="6">
         <v>0</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="6">
         <v>4</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="6">
         <v>6</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="6">
         <v>12</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="6">
         <v>13</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="6">
         <v>14</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="6">
         <v>15</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="6">
         <v>16</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="6">
         <v>17</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="6">
         <v>18</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="6">
         <v>19</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="6">
         <v>20</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="6">
         <v>21</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="6">
         <v>22</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="6">
         <v>23</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="6">
         <v>24</v>
       </c>
@@ -3830,11 +3830,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="6">
         <v>25</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="46">
         <v>15000</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -3860,30 +3860,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3586EB-F428-40AB-8E87-67F854308437}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:17" ht="24">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -3891,7 +3891,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -3909,35 +3909,35 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
+    <row r="4" spans="2:17" ht="43.5" customHeight="1">
+      <c r="B4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="26"/>
@@ -3947,177 +3947,177 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="44">
-        <v>0</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67">
-        <v>200</v>
-      </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="66">
-        <v>200</v>
-      </c>
-      <c r="J5" s="66">
-        <v>200</v>
-      </c>
-      <c r="K5" s="66"/>
+    <row r="5" spans="2:17">
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37">
+        <v>200</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="36">
+        <v>200</v>
+      </c>
+      <c r="J5" s="36">
+        <v>200</v>
+      </c>
+      <c r="K5" s="36"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
+    <row r="6" spans="2:17">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="39">
         <v>400</v>
       </c>
-      <c r="D6" s="69">
-        <v>0</v>
-      </c>
-      <c r="E6" s="69">
-        <v>0</v>
-      </c>
-      <c r="F6" s="69">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
         <v>400</v>
       </c>
-      <c r="H6" s="71">
-        <v>0</v>
-      </c>
-      <c r="I6" s="69">
-        <v>200</v>
-      </c>
-      <c r="J6" s="69">
-        <v>0</v>
-      </c>
-      <c r="K6" s="72"/>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <v>200</v>
+      </c>
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="44">
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="39">
         <v>600</v>
       </c>
-      <c r="D7" s="69">
-        <v>0</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
         <v>600</v>
       </c>
-      <c r="H7" s="71">
-        <v>200</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69">
-        <v>200</v>
-      </c>
-      <c r="K7" s="72"/>
+      <c r="H7" s="41">
+        <v>200</v>
+      </c>
+      <c r="I7" s="39">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
+        <v>200</v>
+      </c>
+      <c r="K7" s="42"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
+      <c r="P7" s="79"/>
+      <c r="Q7" s="80"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="32">
         <v>3</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="39">
         <v>600</v>
       </c>
-      <c r="D8" s="69">
-        <v>200</v>
-      </c>
-      <c r="E8" s="69">
-        <v>200</v>
-      </c>
-      <c r="F8" s="69">
-        <v>0</v>
-      </c>
-      <c r="G8" s="70">
+      <c r="D8" s="39">
+        <v>200</v>
+      </c>
+      <c r="E8" s="39">
+        <v>200</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
         <v>400</v>
       </c>
-      <c r="H8" s="71">
-        <v>200</v>
-      </c>
-      <c r="I8" s="69">
-        <v>200</v>
-      </c>
-      <c r="J8" s="69">
-        <v>200</v>
-      </c>
-      <c r="K8" s="72"/>
+      <c r="H8" s="41">
+        <v>200</v>
+      </c>
+      <c r="I8" s="39">
+        <v>200</v>
+      </c>
+      <c r="J8" s="39">
+        <v>200</v>
+      </c>
+      <c r="K8" s="42"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="54" t="s">
+      <c r="O8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="44">
+      <c r="P8" s="82"/>
+      <c r="Q8" s="83"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="32">
         <v>4</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="39">
         <v>600</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="39">
         <v>1000</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="39">
         <v>600</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="39">
         <v>400</v>
       </c>
-      <c r="G9" s="70">
-        <v>0</v>
-      </c>
-      <c r="H9" s="71">
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41">
         <v>1500</v>
       </c>
-      <c r="I9" s="69">
-        <v>200</v>
-      </c>
-      <c r="J9" s="69">
+      <c r="I9" s="39">
+        <v>200</v>
+      </c>
+      <c r="J9" s="39">
         <v>1500</v>
       </c>
-      <c r="K9" s="72"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -4125,70 +4125,70 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
+    <row r="10" spans="2:17">
+      <c r="B10" s="32">
         <v>5</v>
       </c>
-      <c r="C10" s="69">
-        <v>200</v>
-      </c>
-      <c r="D10" s="69">
-        <v>500</v>
-      </c>
-      <c r="E10" s="69">
-        <v>200</v>
-      </c>
-      <c r="F10" s="69">
+      <c r="C10" s="39">
+        <v>200</v>
+      </c>
+      <c r="D10" s="39">
+        <v>500</v>
+      </c>
+      <c r="E10" s="39">
+        <v>200</v>
+      </c>
+      <c r="F10" s="39">
         <v>700</v>
       </c>
-      <c r="G10" s="70">
-        <v>0</v>
-      </c>
-      <c r="H10" s="71">
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
         <v>400</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="39">
         <v>1500</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="39">
         <v>400</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="44">
+    <row r="11" spans="2:17">
+      <c r="B11" s="32">
         <v>6</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="39">
         <v>1500</v>
       </c>
-      <c r="D11" s="69">
-        <v>200</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="D11" s="39">
+        <v>200</v>
+      </c>
+      <c r="E11" s="39">
         <v>900</v>
       </c>
-      <c r="F11" s="69">
-        <v>0</v>
-      </c>
-      <c r="G11" s="70">
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+      <c r="G11" s="40">
         <v>600</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="41">
         <v>300</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="39">
         <v>400</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="39">
         <v>300</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -4196,35 +4196,35 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="44">
+    <row r="12" spans="2:17">
+      <c r="B12" s="32">
         <v>7</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="39">
         <v>1000</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="39">
         <v>1000</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="39">
         <v>1000</v>
       </c>
-      <c r="F12" s="69">
-        <v>0</v>
-      </c>
-      <c r="G12" s="70">
-        <v>0</v>
-      </c>
-      <c r="H12" s="71">
-        <v>500</v>
-      </c>
-      <c r="I12" s="69">
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>500</v>
+      </c>
+      <c r="I12" s="39">
         <v>300</v>
       </c>
-      <c r="J12" s="69">
-        <v>500</v>
-      </c>
-      <c r="K12" s="72"/>
+      <c r="J12" s="39">
+        <v>500</v>
+      </c>
+      <c r="K12" s="42"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
@@ -4232,35 +4232,35 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="44">
+    <row r="13" spans="2:17">
+      <c r="B13" s="32">
         <v>8</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="39">
         <v>300</v>
       </c>
-      <c r="D13" s="69">
-        <v>500</v>
-      </c>
-      <c r="E13" s="69">
+      <c r="D13" s="39">
+        <v>500</v>
+      </c>
+      <c r="E13" s="39">
         <v>300</v>
       </c>
-      <c r="F13" s="69">
-        <v>200</v>
-      </c>
-      <c r="G13" s="70">
-        <v>0</v>
-      </c>
-      <c r="H13" s="71">
-        <v>500</v>
-      </c>
-      <c r="I13" s="69">
-        <v>500</v>
-      </c>
-      <c r="J13" s="69">
-        <v>500</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="F13" s="39">
+        <v>200</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>500</v>
+      </c>
+      <c r="I13" s="39">
+        <v>500</v>
+      </c>
+      <c r="J13" s="39">
+        <v>500</v>
+      </c>
+      <c r="K13" s="42"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -4268,35 +4268,35 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="44">
+    <row r="14" spans="2:17">
+      <c r="B14" s="32">
         <v>9</v>
       </c>
-      <c r="C14" s="69">
-        <v>500</v>
-      </c>
-      <c r="D14" s="69">
+      <c r="C14" s="39">
+        <v>500</v>
+      </c>
+      <c r="D14" s="39">
         <v>5000</v>
       </c>
-      <c r="E14" s="69">
-        <v>500</v>
-      </c>
-      <c r="F14" s="69">
+      <c r="E14" s="39">
+        <v>500</v>
+      </c>
+      <c r="F14" s="39">
         <v>4700</v>
       </c>
-      <c r="G14" s="70">
-        <v>0</v>
-      </c>
-      <c r="H14" s="71">
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
         <v>6000</v>
       </c>
-      <c r="I14" s="69">
-        <v>500</v>
-      </c>
-      <c r="J14" s="69">
+      <c r="I14" s="39">
+        <v>500</v>
+      </c>
+      <c r="J14" s="39">
         <v>6000</v>
       </c>
-      <c r="K14" s="72"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -4304,35 +4304,35 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="44">
+    <row r="15" spans="2:17">
+      <c r="B15" s="32">
         <v>10</v>
       </c>
-      <c r="C15" s="69">
-        <v>500</v>
-      </c>
-      <c r="D15" s="69">
+      <c r="C15" s="39">
+        <v>500</v>
+      </c>
+      <c r="D15" s="39">
         <v>5000</v>
       </c>
-      <c r="E15" s="69">
-        <v>500</v>
-      </c>
-      <c r="F15" s="69">
+      <c r="E15" s="39">
+        <v>500</v>
+      </c>
+      <c r="F15" s="39">
         <v>9200</v>
       </c>
-      <c r="G15" s="70">
-        <v>0</v>
-      </c>
-      <c r="H15" s="71">
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
         <v>6000</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="39">
         <v>6000</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="39">
         <v>6000</v>
       </c>
-      <c r="K15" s="72"/>
+      <c r="K15" s="42"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -4340,35 +4340,35 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="44">
+    <row r="16" spans="2:17">
+      <c r="B16" s="32">
         <v>11</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="39">
         <v>6000</v>
       </c>
-      <c r="D16" s="69">
+      <c r="D16" s="39">
         <v>3000</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="39">
         <v>6000</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="39">
         <v>6200</v>
       </c>
-      <c r="G16" s="70">
-        <v>0</v>
-      </c>
-      <c r="H16" s="71">
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
         <v>5000</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="39">
         <v>6000</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="39">
         <v>5000</v>
       </c>
-      <c r="K16" s="72"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -4376,35 +4376,35 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="44">
+    <row r="17" spans="2:17">
+      <c r="B17" s="32">
         <v>12</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="39">
         <v>6000</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="39">
         <v>1000</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="39">
         <v>6000</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="39">
         <v>1200</v>
       </c>
-      <c r="G17" s="70">
-        <v>0</v>
-      </c>
-      <c r="H17" s="71">
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41">
         <v>2000</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="39">
         <v>5000</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="39">
         <v>2000</v>
       </c>
-      <c r="K17" s="72"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
@@ -4412,35 +4412,35 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="44">
+    <row r="18" spans="2:17">
+      <c r="B18" s="32">
         <v>13</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="39">
         <v>5000</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="39">
         <v>5000</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="39">
         <v>5000</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="39">
         <v>1200</v>
       </c>
-      <c r="G18" s="70">
-        <v>0</v>
-      </c>
-      <c r="H18" s="71">
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
         <v>5000</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="39">
         <v>2000</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="39">
         <v>5000</v>
       </c>
-      <c r="K18" s="72"/>
+      <c r="K18" s="42"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -4448,35 +4448,35 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="44">
+    <row r="19" spans="2:17">
+      <c r="B19" s="32">
         <v>14</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="39">
         <v>2000</v>
       </c>
-      <c r="D19" s="69">
-        <v>0</v>
-      </c>
-      <c r="E19" s="69">
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39">
         <v>1200</v>
       </c>
-      <c r="F19" s="69">
-        <v>0</v>
-      </c>
-      <c r="G19" s="70">
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40">
         <v>800</v>
       </c>
-      <c r="H19" s="71">
-        <v>0</v>
-      </c>
-      <c r="I19" s="69">
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39">
         <v>5000</v>
       </c>
-      <c r="J19" s="69">
-        <v>0</v>
-      </c>
-      <c r="K19" s="72"/>
+      <c r="J19" s="39">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -4484,35 +4484,35 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="44">
+    <row r="20" spans="2:17">
+      <c r="B20" s="32">
         <v>15</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="39">
         <v>5800</v>
       </c>
-      <c r="D20" s="69">
-        <v>0</v>
-      </c>
-      <c r="E20" s="69">
-        <v>0</v>
-      </c>
-      <c r="F20" s="69">
-        <v>0</v>
-      </c>
-      <c r="G20" s="70">
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
         <v>5800</v>
       </c>
-      <c r="H20" s="71">
-        <v>0</v>
-      </c>
-      <c r="I20" s="69">
-        <v>0</v>
-      </c>
-      <c r="J20" s="69">
-        <v>0</v>
-      </c>
-      <c r="K20" s="72"/>
+      <c r="H20" s="41">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -4520,35 +4520,35 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="44">
+    <row r="21" spans="2:17">
+      <c r="B21" s="32">
         <v>16</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="39">
         <v>5800</v>
       </c>
-      <c r="D21" s="69">
-        <v>0</v>
-      </c>
-      <c r="E21" s="69">
-        <v>0</v>
-      </c>
-      <c r="F21" s="69">
-        <v>0</v>
-      </c>
-      <c r="G21" s="70">
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="39">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
         <v>5800</v>
       </c>
-      <c r="H21" s="71">
-        <v>0</v>
-      </c>
-      <c r="I21" s="69">
-        <v>0</v>
-      </c>
-      <c r="J21" s="69">
-        <v>0</v>
-      </c>
-      <c r="K21" s="72"/>
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
@@ -4556,35 +4556,35 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="44">
+    <row r="22" spans="2:17">
+      <c r="B22" s="32">
         <v>17</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="39">
         <v>5800</v>
       </c>
-      <c r="D22" s="69">
-        <v>0</v>
-      </c>
-      <c r="E22" s="69">
-        <v>0</v>
-      </c>
-      <c r="F22" s="69">
-        <v>0</v>
-      </c>
-      <c r="G22" s="70">
+      <c r="D22" s="39">
+        <v>0</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="40">
         <v>5800</v>
       </c>
-      <c r="H22" s="71">
-        <v>0</v>
-      </c>
-      <c r="I22" s="69">
-        <v>0</v>
-      </c>
-      <c r="J22" s="69">
-        <v>0</v>
-      </c>
-      <c r="K22" s="72"/>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
@@ -4592,35 +4592,35 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="44">
+    <row r="23" spans="2:17">
+      <c r="B23" s="32">
         <v>18</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="39">
         <v>5800</v>
       </c>
-      <c r="D23" s="69">
-        <v>0</v>
-      </c>
-      <c r="E23" s="69">
-        <v>0</v>
-      </c>
-      <c r="F23" s="69">
-        <v>0</v>
-      </c>
-      <c r="G23" s="70">
+      <c r="D23" s="39">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+      <c r="G23" s="40">
         <v>5800</v>
       </c>
-      <c r="H23" s="71">
-        <v>0</v>
-      </c>
-      <c r="I23" s="69">
-        <v>0</v>
-      </c>
-      <c r="J23" s="69">
-        <v>0</v>
-      </c>
-      <c r="K23" s="72"/>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="39">
+        <v>0</v>
+      </c>
+      <c r="J23" s="39">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -4628,35 +4628,35 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="44">
+    <row r="24" spans="2:17">
+      <c r="B24" s="32">
         <v>19</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="39">
         <v>5800</v>
       </c>
-      <c r="D24" s="69">
-        <v>0</v>
-      </c>
-      <c r="E24" s="69">
-        <v>0</v>
-      </c>
-      <c r="F24" s="69">
-        <v>0</v>
-      </c>
-      <c r="G24" s="70">
+      <c r="D24" s="39">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39">
+        <v>0</v>
+      </c>
+      <c r="F24" s="39">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
         <v>5800</v>
       </c>
-      <c r="H24" s="71">
-        <v>0</v>
-      </c>
-      <c r="I24" s="69">
-        <v>0</v>
-      </c>
-      <c r="J24" s="69">
-        <v>0</v>
-      </c>
-      <c r="K24" s="72"/>
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="39">
+        <v>0</v>
+      </c>
+      <c r="J24" s="39">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
@@ -4664,35 +4664,35 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="44">
+    <row r="25" spans="2:17">
+      <c r="B25" s="32">
         <v>20</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="39">
         <v>5800</v>
       </c>
-      <c r="D25" s="69">
-        <v>0</v>
-      </c>
-      <c r="E25" s="69">
-        <v>0</v>
-      </c>
-      <c r="F25" s="69">
-        <v>0</v>
-      </c>
-      <c r="G25" s="70">
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40">
         <v>5800</v>
       </c>
-      <c r="H25" s="71">
-        <v>0</v>
-      </c>
-      <c r="I25" s="69">
-        <v>0</v>
-      </c>
-      <c r="J25" s="69">
-        <v>0</v>
-      </c>
-      <c r="K25" s="72"/>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
@@ -4700,35 +4700,35 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="44">
+    <row r="26" spans="2:17">
+      <c r="B26" s="32">
         <v>21</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="39">
         <v>5800</v>
       </c>
-      <c r="D26" s="69">
-        <v>0</v>
-      </c>
-      <c r="E26" s="69">
-        <v>0</v>
-      </c>
-      <c r="F26" s="69">
-        <v>0</v>
-      </c>
-      <c r="G26" s="70">
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40">
         <v>5800</v>
       </c>
-      <c r="H26" s="71">
-        <v>0</v>
-      </c>
-      <c r="I26" s="69">
-        <v>0</v>
-      </c>
-      <c r="J26" s="69">
-        <v>0</v>
-      </c>
-      <c r="K26" s="72"/>
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
@@ -4736,35 +4736,35 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="44">
+    <row r="27" spans="2:17">
+      <c r="B27" s="32">
         <v>22</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="39">
         <v>5800</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="39">
         <v>3800</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="39">
         <v>3800</v>
       </c>
-      <c r="F27" s="69">
-        <v>0</v>
-      </c>
-      <c r="G27" s="70">
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40">
         <v>2000</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="41">
         <v>2000</v>
       </c>
-      <c r="I27" s="69">
-        <v>0</v>
-      </c>
-      <c r="J27" s="69">
+      <c r="I27" s="39">
+        <v>0</v>
+      </c>
+      <c r="J27" s="39">
         <v>2000</v>
       </c>
-      <c r="K27" s="72"/>
+      <c r="K27" s="42"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
@@ -4772,35 +4772,35 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="44">
+    <row r="28" spans="2:17">
+      <c r="B28" s="32">
         <v>23</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="39">
         <v>2000</v>
       </c>
-      <c r="D28" s="69">
-        <v>0</v>
-      </c>
-      <c r="E28" s="69">
-        <v>0</v>
-      </c>
-      <c r="F28" s="69">
-        <v>0</v>
-      </c>
-      <c r="G28" s="70">
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="40">
         <v>2000</v>
       </c>
-      <c r="H28" s="71">
-        <v>0</v>
-      </c>
-      <c r="I28" s="69">
+      <c r="H28" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
         <v>2000</v>
       </c>
-      <c r="J28" s="69">
-        <v>0</v>
-      </c>
-      <c r="K28" s="72"/>
+      <c r="J28" s="39">
+        <v>0</v>
+      </c>
+      <c r="K28" s="42"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
@@ -4808,35 +4808,35 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="44">
+    <row r="29" spans="2:17">
+      <c r="B29" s="32">
         <v>24</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="39">
         <v>4000</v>
       </c>
-      <c r="D29" s="69">
-        <v>0</v>
-      </c>
-      <c r="E29" s="69">
-        <v>0</v>
-      </c>
-      <c r="F29" s="69">
-        <v>0</v>
-      </c>
-      <c r="G29" s="70">
+      <c r="D29" s="39">
+        <v>0</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="40">
         <v>4000</v>
       </c>
-      <c r="H29" s="71">
-        <v>0</v>
-      </c>
-      <c r="I29" s="69">
-        <v>0</v>
-      </c>
-      <c r="J29" s="69">
-        <v>0</v>
-      </c>
-      <c r="K29" s="72"/>
+      <c r="H29" s="41">
+        <v>0</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
@@ -4844,23 +4844,23 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="44">
+    <row r="30" spans="2:17">
+      <c r="B30" s="32">
         <v>25</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="47">
         <v>4000</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
